--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Lgals3-Lag3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.905196774325059</v>
+        <v>78.94643366666666</v>
       </c>
       <c r="H2">
-        <v>8.905196774325059</v>
+        <v>236.839301</v>
       </c>
       <c r="I2">
-        <v>0.4968416134069527</v>
+        <v>0.8231230137654455</v>
       </c>
       <c r="J2">
-        <v>0.4968416134069527</v>
+        <v>0.8231230137654454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.66743868165535</v>
+        <v>7.807091</v>
       </c>
       <c r="N2">
-        <v>5.66743868165535</v>
+        <v>23.421273</v>
       </c>
       <c r="O2">
-        <v>0.2544844613356937</v>
+        <v>0.3133326987643095</v>
       </c>
       <c r="P2">
-        <v>0.2544844613356937</v>
+        <v>0.3133326987643095</v>
       </c>
       <c r="Q2">
-        <v>50.46965666656229</v>
+        <v>616.3419917611303</v>
       </c>
       <c r="R2">
-        <v>50.46965666656229</v>
+        <v>5547.077925850173</v>
       </c>
       <c r="S2">
-        <v>0.1264384703570253</v>
+        <v>0.2579113553181389</v>
       </c>
       <c r="T2">
-        <v>0.1264384703570253</v>
+        <v>0.2579113553181389</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.905196774325059</v>
+        <v>78.94643366666666</v>
       </c>
       <c r="H3">
-        <v>8.905196774325059</v>
+        <v>236.839301</v>
       </c>
       <c r="I3">
-        <v>0.4968416134069527</v>
+        <v>0.8231230137654455</v>
       </c>
       <c r="J3">
-        <v>0.4968416134069527</v>
+        <v>0.8231230137654454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.4625904849172</v>
+        <v>12.70064766666667</v>
       </c>
       <c r="N3">
-        <v>12.4625904849172</v>
+        <v>38.101943</v>
       </c>
       <c r="O3">
-        <v>0.5596065179615055</v>
+        <v>0.5097325251430138</v>
       </c>
       <c r="P3">
-        <v>0.5596065179615055</v>
+        <v>0.5097325251430138</v>
       </c>
       <c r="Q3">
-        <v>110.9818205860188</v>
+        <v>1002.670838540205</v>
       </c>
       <c r="R3">
-        <v>110.9818205860188</v>
+        <v>9024.037546861842</v>
       </c>
       <c r="S3">
-        <v>0.2780358052570412</v>
+        <v>0.4195725723099882</v>
       </c>
       <c r="T3">
-        <v>0.2780358052570412</v>
+        <v>0.4195725723099882</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.905196774325059</v>
+        <v>78.94643366666666</v>
       </c>
       <c r="H4">
-        <v>8.905196774325059</v>
+        <v>236.839301</v>
       </c>
       <c r="I4">
-        <v>0.4968416134069527</v>
+        <v>0.8231230137654455</v>
       </c>
       <c r="J4">
-        <v>0.4968416134069527</v>
+        <v>0.8231230137654454</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.14024482936844</v>
+        <v>4.408559666666666</v>
       </c>
       <c r="N4">
-        <v>4.14024482936844</v>
+        <v>13.225679</v>
       </c>
       <c r="O4">
-        <v>0.1859090207028008</v>
+        <v>0.1769347760926767</v>
       </c>
       <c r="P4">
-        <v>0.1859090207028008</v>
+        <v>0.1769347760926767</v>
       </c>
       <c r="Q4">
-        <v>36.86969489940783</v>
+        <v>348.040063290042</v>
       </c>
       <c r="R4">
-        <v>36.86969489940783</v>
+        <v>3132.360569610379</v>
       </c>
       <c r="S4">
-        <v>0.09236733779288613</v>
+        <v>0.1456390861373183</v>
       </c>
       <c r="T4">
-        <v>0.09236733779288613</v>
+        <v>0.1456390861373183</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.25258544682776</v>
+        <v>3.569858333333333</v>
       </c>
       <c r="H5">
-        <v>3.25258544682776</v>
+        <v>10.709575</v>
       </c>
       <c r="I5">
-        <v>0.181469297321435</v>
+        <v>0.03722058633396773</v>
       </c>
       <c r="J5">
-        <v>0.181469297321435</v>
+        <v>0.03722058633396773</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.66743868165535</v>
+        <v>7.807091</v>
       </c>
       <c r="N5">
-        <v>5.66743868165535</v>
+        <v>23.421273</v>
       </c>
       <c r="O5">
-        <v>0.2544844613356937</v>
+        <v>0.3133326987643095</v>
       </c>
       <c r="P5">
-        <v>0.2544844613356937</v>
+        <v>0.3133326987643095</v>
       </c>
       <c r="Q5">
-        <v>18.4338285767409</v>
+        <v>27.87020886544166</v>
       </c>
       <c r="R5">
-        <v>18.4338285767409</v>
+        <v>250.831879788975</v>
       </c>
       <c r="S5">
-        <v>0.04618111637781224</v>
+        <v>0.01166242676561208</v>
       </c>
       <c r="T5">
-        <v>0.04618111637781224</v>
+        <v>0.01166242676561208</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.25258544682776</v>
+        <v>3.569858333333333</v>
       </c>
       <c r="H6">
-        <v>3.25258544682776</v>
+        <v>10.709575</v>
       </c>
       <c r="I6">
-        <v>0.181469297321435</v>
+        <v>0.03722058633396773</v>
       </c>
       <c r="J6">
-        <v>0.181469297321435</v>
+        <v>0.03722058633396773</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.4625904849172</v>
+        <v>12.70064766666667</v>
       </c>
       <c r="N6">
-        <v>12.4625904849172</v>
+        <v>38.101943</v>
       </c>
       <c r="O6">
-        <v>0.5596065179615055</v>
+        <v>0.5097325251430138</v>
       </c>
       <c r="P6">
-        <v>0.5596065179615055</v>
+        <v>0.5097325251430138</v>
       </c>
       <c r="Q6">
-        <v>40.5356404410158</v>
+        <v>45.33951291158055</v>
       </c>
       <c r="R6">
-        <v>40.5356404410158</v>
+        <v>408.055616204225</v>
       </c>
       <c r="S6">
-        <v>0.1015514015909694</v>
+        <v>0.01897254345931692</v>
       </c>
       <c r="T6">
-        <v>0.1015514015909694</v>
+        <v>0.01897254345931692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.25258544682776</v>
+        <v>3.569858333333333</v>
       </c>
       <c r="H7">
-        <v>3.25258544682776</v>
+        <v>10.709575</v>
       </c>
       <c r="I7">
-        <v>0.181469297321435</v>
+        <v>0.03722058633396773</v>
       </c>
       <c r="J7">
-        <v>0.181469297321435</v>
+        <v>0.03722058633396773</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.14024482936844</v>
+        <v>4.408559666666666</v>
       </c>
       <c r="N7">
-        <v>4.14024482936844</v>
+        <v>13.225679</v>
       </c>
       <c r="O7">
-        <v>0.1859090207028008</v>
+        <v>0.1769347760926767</v>
       </c>
       <c r="P7">
-        <v>0.1859090207028008</v>
+        <v>0.1769347760926767</v>
       </c>
       <c r="Q7">
-        <v>13.46650007830767</v>
+        <v>15.73793346404722</v>
       </c>
       <c r="R7">
-        <v>13.46650007830767</v>
+        <v>141.641401176425</v>
       </c>
       <c r="S7">
-        <v>0.03373677935265338</v>
+        <v>0.006585616109038721</v>
       </c>
       <c r="T7">
-        <v>0.03373677935265338</v>
+        <v>0.006585616109038721</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.76583072515447</v>
+        <v>13.394565</v>
       </c>
       <c r="H8">
-        <v>5.76583072515447</v>
+        <v>40.183695</v>
       </c>
       <c r="I8">
-        <v>0.3216890892716122</v>
+        <v>0.1396563999005869</v>
       </c>
       <c r="J8">
-        <v>0.3216890892716122</v>
+        <v>0.1396563999005868</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.66743868165535</v>
+        <v>7.807091</v>
       </c>
       <c r="N8">
-        <v>5.66743868165535</v>
+        <v>23.421273</v>
       </c>
       <c r="O8">
-        <v>0.2544844613356937</v>
+        <v>0.3133326987643095</v>
       </c>
       <c r="P8">
-        <v>0.2544844613356937</v>
+        <v>0.3133326987643095</v>
       </c>
       <c r="Q8">
-        <v>32.67749208361736</v>
+        <v>104.572587860415</v>
       </c>
       <c r="R8">
-        <v>32.67749208361736</v>
+        <v>941.1532907437349</v>
       </c>
       <c r="S8">
-        <v>0.08186487460085612</v>
+        <v>0.04375891668055852</v>
       </c>
       <c r="T8">
-        <v>0.08186487460085612</v>
+        <v>0.04375891668055851</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.76583072515447</v>
+        <v>13.394565</v>
       </c>
       <c r="H9">
-        <v>5.76583072515447</v>
+        <v>40.183695</v>
       </c>
       <c r="I9">
-        <v>0.3216890892716122</v>
+        <v>0.1396563999005869</v>
       </c>
       <c r="J9">
-        <v>0.3216890892716122</v>
+        <v>0.1396563999005868</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.4625904849172</v>
+        <v>12.70064766666667</v>
       </c>
       <c r="N9">
-        <v>12.4625904849172</v>
+        <v>38.101943</v>
       </c>
       <c r="O9">
-        <v>0.5596065179615055</v>
+        <v>0.5097325251430138</v>
       </c>
       <c r="P9">
-        <v>0.5596065179615055</v>
+        <v>0.5097325251430138</v>
       </c>
       <c r="Q9">
-        <v>71.85718713295334</v>
+        <v>170.119650713265</v>
       </c>
       <c r="R9">
-        <v>71.85718713295334</v>
+        <v>1531.076856419385</v>
       </c>
       <c r="S9">
-        <v>0.1800193111134948</v>
+        <v>0.07118740937370868</v>
       </c>
       <c r="T9">
-        <v>0.1800193111134948</v>
+        <v>0.07118740937370867</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.76583072515447</v>
+        <v>13.394565</v>
       </c>
       <c r="H10">
-        <v>5.76583072515447</v>
+        <v>40.183695</v>
       </c>
       <c r="I10">
-        <v>0.3216890892716122</v>
+        <v>0.1396563999005869</v>
       </c>
       <c r="J10">
-        <v>0.3216890892716122</v>
+        <v>0.1396563999005868</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.14024482936844</v>
+        <v>4.408559666666666</v>
       </c>
       <c r="N10">
-        <v>4.14024482936844</v>
+        <v>13.225679</v>
       </c>
       <c r="O10">
-        <v>0.1859090207028008</v>
+        <v>0.1769347760926767</v>
       </c>
       <c r="P10">
-        <v>0.1859090207028008</v>
+        <v>0.1769347760926767</v>
       </c>
       <c r="Q10">
-        <v>23.87195084683448</v>
+        <v>59.05073901154499</v>
       </c>
       <c r="R10">
-        <v>23.87195084683448</v>
+        <v>531.456651103905</v>
       </c>
       <c r="S10">
-        <v>0.05980490355726129</v>
+        <v>0.02471007384631965</v>
       </c>
       <c r="T10">
-        <v>0.05980490355726129</v>
+        <v>0.02471007384631965</v>
       </c>
     </row>
   </sheetData>
